--- a/data/pca/factorExposure/factorExposure_2013-02-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006757634920123588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00184483290028124</v>
+      </c>
+      <c r="C2">
+        <v>-0.03194506453976616</v>
+      </c>
+      <c r="D2">
+        <v>0.005489715606678201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006625987999543571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00630221221322737</v>
+      </c>
+      <c r="C4">
+        <v>-0.08474614549181078</v>
+      </c>
+      <c r="D4">
+        <v>0.07865252877607608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-1.753272060019347e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0141833990687714</v>
+      </c>
+      <c r="C6">
+        <v>-0.1136381712623351</v>
+      </c>
+      <c r="D6">
+        <v>0.03156175389308495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001483247826289245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005005509079700173</v>
+      </c>
+      <c r="C7">
+        <v>-0.05762651174701595</v>
+      </c>
+      <c r="D7">
+        <v>0.03643660247600334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007488316319471784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00580190765831815</v>
+      </c>
+      <c r="C8">
+        <v>-0.03824917517247769</v>
+      </c>
+      <c r="D8">
+        <v>0.04590511811519349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003430329547394872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004404833732549142</v>
+      </c>
+      <c r="C9">
+        <v>-0.07064149300549083</v>
+      </c>
+      <c r="D9">
+        <v>0.07113576623895634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002754046093722391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005416120941753548</v>
+      </c>
+      <c r="C10">
+        <v>-0.05706432779689653</v>
+      </c>
+      <c r="D10">
+        <v>-0.1972863473626283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00269772029066131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005770702999257495</v>
+      </c>
+      <c r="C11">
+        <v>-0.08071607100117213</v>
+      </c>
+      <c r="D11">
+        <v>0.06083527553911244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003667761114659272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004074187510813662</v>
+      </c>
+      <c r="C12">
+        <v>-0.06403147998433535</v>
+      </c>
+      <c r="D12">
+        <v>0.04744735802288864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003111101662455179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008681698413071454</v>
+      </c>
+      <c r="C13">
+        <v>-0.06594679003249744</v>
+      </c>
+      <c r="D13">
+        <v>0.06292699596594271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001191756446808664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001602987211478018</v>
+      </c>
+      <c r="C14">
+        <v>-0.04653954235560988</v>
+      </c>
+      <c r="D14">
+        <v>0.006967528265790415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007589697230604953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006060967811506683</v>
+      </c>
+      <c r="C15">
+        <v>-0.04290448250225917</v>
+      </c>
+      <c r="D15">
+        <v>0.02753306960809587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001037513484489843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005086777131485134</v>
+      </c>
+      <c r="C16">
+        <v>-0.0657160198309119</v>
+      </c>
+      <c r="D16">
+        <v>0.04698503473224295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005382678587862055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008901004750406376</v>
+      </c>
+      <c r="C20">
+        <v>-0.06589424411123607</v>
+      </c>
+      <c r="D20">
+        <v>0.04387116961921879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005450978122679354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01004016829526118</v>
+      </c>
+      <c r="C21">
+        <v>-0.0220466087278847</v>
+      </c>
+      <c r="D21">
+        <v>0.03711373628334867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01746344642518119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006630894200127031</v>
+      </c>
+      <c r="C22">
+        <v>-0.09522326093572464</v>
+      </c>
+      <c r="D22">
+        <v>0.106898619372778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01776920052107826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006448276738073022</v>
+      </c>
+      <c r="C23">
+        <v>-0.0960376512237256</v>
+      </c>
+      <c r="D23">
+        <v>0.1070905403911671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001456838168528293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005448630978807312</v>
+      </c>
+      <c r="C24">
+        <v>-0.07613739588914091</v>
+      </c>
+      <c r="D24">
+        <v>0.06087638325766223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003896801076789247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003021209158923728</v>
+      </c>
+      <c r="C25">
+        <v>-0.07813398394132456</v>
+      </c>
+      <c r="D25">
+        <v>0.06639898610821597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005188206789220526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00364265234874134</v>
+      </c>
+      <c r="C26">
+        <v>-0.04174968339898286</v>
+      </c>
+      <c r="D26">
+        <v>0.02164966007622732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006598165703343575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0008801967355702893</v>
+      </c>
+      <c r="C28">
+        <v>-0.1058414591883266</v>
+      </c>
+      <c r="D28">
+        <v>-0.3163039419655649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001305561460393355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003238247044968815</v>
+      </c>
+      <c r="C29">
+        <v>-0.04979176548841479</v>
+      </c>
+      <c r="D29">
+        <v>0.004978003194782852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003452847539349522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009543650218073104</v>
+      </c>
+      <c r="C30">
+        <v>-0.1431099138015429</v>
+      </c>
+      <c r="D30">
+        <v>0.09326611156902846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0008545621449901563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006253057758150735</v>
+      </c>
+      <c r="C31">
+        <v>-0.04520172325926698</v>
+      </c>
+      <c r="D31">
+        <v>0.03038485306972593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000665522902691295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004143500545079498</v>
+      </c>
+      <c r="C32">
+        <v>-0.04170249084799279</v>
+      </c>
+      <c r="D32">
+        <v>0.01868797524426944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002456951249270984</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008364773875750089</v>
+      </c>
+      <c r="C33">
+        <v>-0.08634193713477452</v>
+      </c>
+      <c r="D33">
+        <v>0.06843155379730441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004236202008144874</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003986931220962354</v>
+      </c>
+      <c r="C34">
+        <v>-0.05779593630799243</v>
+      </c>
+      <c r="D34">
+        <v>0.05315317112842127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002061397242109866</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005091327369709566</v>
+      </c>
+      <c r="C35">
+        <v>-0.0400321831344632</v>
+      </c>
+      <c r="D35">
+        <v>0.01689684771877417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004239262923878619</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001178347840760962</v>
+      </c>
+      <c r="C36">
+        <v>-0.02471548547399812</v>
+      </c>
+      <c r="D36">
+        <v>0.02217533620227388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002798717605483108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00954861017509083</v>
+      </c>
+      <c r="C38">
+        <v>-0.03547922451378414</v>
+      </c>
+      <c r="D38">
+        <v>0.01558023943937067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01173207757674087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005057951006280578</v>
+      </c>
+      <c r="C39">
+        <v>-0.1167256306305485</v>
+      </c>
+      <c r="D39">
+        <v>0.07103526153606136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008814093731057831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002573623255313055</v>
+      </c>
+      <c r="C40">
+        <v>-0.08833894924638463</v>
+      </c>
+      <c r="D40">
+        <v>0.01784601579095656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001820333118571804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007297513519307182</v>
+      </c>
+      <c r="C41">
+        <v>-0.03750313229653891</v>
+      </c>
+      <c r="D41">
+        <v>0.03490664540053078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003309278115982517</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003925387175076175</v>
+      </c>
+      <c r="C43">
+        <v>-0.05316531722842806</v>
+      </c>
+      <c r="D43">
+        <v>0.02363609649567698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003394894441231376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00335169506425336</v>
+      </c>
+      <c r="C44">
+        <v>-0.1102160024510856</v>
+      </c>
+      <c r="D44">
+        <v>0.07070222716163053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001386242174467735</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002296299161308915</v>
+      </c>
+      <c r="C46">
+        <v>-0.03369912284636686</v>
+      </c>
+      <c r="D46">
+        <v>0.033562870416637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002096517465223992</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002677683791284231</v>
+      </c>
+      <c r="C47">
+        <v>-0.03735430362792262</v>
+      </c>
+      <c r="D47">
+        <v>0.02269385850777626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003395456943641097</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006555658840472582</v>
+      </c>
+      <c r="C48">
+        <v>-0.03007473031290718</v>
+      </c>
+      <c r="D48">
+        <v>0.03213539337475895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01316990848275387</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01535609499640506</v>
+      </c>
+      <c r="C49">
+        <v>-0.1829161331237809</v>
+      </c>
+      <c r="D49">
+        <v>0.01142151533360049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001885473656965831</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003640829093842294</v>
+      </c>
+      <c r="C50">
+        <v>-0.04419933881793338</v>
+      </c>
+      <c r="D50">
+        <v>0.03364683742403911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008551751886498532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004469450517319678</v>
+      </c>
+      <c r="C51">
+        <v>-0.02673458549405936</v>
+      </c>
+      <c r="D51">
+        <v>0.0182184160975112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003000099793283004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02078789883627205</v>
+      </c>
+      <c r="C53">
+        <v>-0.1682367252889167</v>
+      </c>
+      <c r="D53">
+        <v>0.02944805817469871</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001450885468109901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00871509584464232</v>
+      </c>
+      <c r="C54">
+        <v>-0.05552517675447591</v>
+      </c>
+      <c r="D54">
+        <v>0.04295187677722325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004002911056777134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009449646500215052</v>
+      </c>
+      <c r="C55">
+        <v>-0.1081189045102013</v>
+      </c>
+      <c r="D55">
+        <v>0.04091420813040242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003340833373137372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02002140257706183</v>
+      </c>
+      <c r="C56">
+        <v>-0.1738595645015078</v>
+      </c>
+      <c r="D56">
+        <v>0.02974509810331189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007034583885479445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01976603515783336</v>
+      </c>
+      <c r="C58">
+        <v>-0.1109250807759407</v>
+      </c>
+      <c r="D58">
+        <v>0.05219162617130647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006998844411486789</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009749239418515361</v>
+      </c>
+      <c r="C59">
+        <v>-0.1617113271786559</v>
+      </c>
+      <c r="D59">
+        <v>-0.3133356263332062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004507086973840195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02385132998917065</v>
+      </c>
+      <c r="C60">
+        <v>-0.2210683211285659</v>
+      </c>
+      <c r="D60">
+        <v>0.03345660762289964</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01358696746871209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001653155848237171</v>
+      </c>
+      <c r="C61">
+        <v>-0.0961037776924068</v>
+      </c>
+      <c r="D61">
+        <v>0.05796041908000978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1653496709148342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1446212926660535</v>
+      </c>
+      <c r="C62">
+        <v>-0.09103435887936617</v>
+      </c>
+      <c r="D62">
+        <v>0.04637103841212258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0009155402674345426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006267850837234419</v>
+      </c>
+      <c r="C63">
+        <v>-0.05548618571176527</v>
+      </c>
+      <c r="D63">
+        <v>0.02331658585024876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001075060113553257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01544839226322362</v>
+      </c>
+      <c r="C64">
+        <v>-0.1059355991702357</v>
+      </c>
+      <c r="D64">
+        <v>0.0601141401398038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002223402207716658</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.017970855133365</v>
+      </c>
+      <c r="C65">
+        <v>-0.1229234673829452</v>
+      </c>
+      <c r="D65">
+        <v>0.0165862013006069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00745835746686181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01320357796371529</v>
+      </c>
+      <c r="C66">
+        <v>-0.1605273096347609</v>
+      </c>
+      <c r="D66">
+        <v>0.1139493831027115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00409632807823793</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01571176490303938</v>
+      </c>
+      <c r="C67">
+        <v>-0.06627987490518306</v>
+      </c>
+      <c r="D67">
+        <v>0.0252766422837903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006996918136605946</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005649165890777365</v>
+      </c>
+      <c r="C68">
+        <v>-0.08587674336787353</v>
+      </c>
+      <c r="D68">
+        <v>-0.2558343055038418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00228837808758426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006172636868417219</v>
+      </c>
+      <c r="C69">
+        <v>-0.05068852824325366</v>
+      </c>
+      <c r="D69">
+        <v>0.03755732625255283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0004278951287386051</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001874521243627621</v>
+      </c>
+      <c r="C70">
+        <v>-0.003044520731441704</v>
+      </c>
+      <c r="D70">
+        <v>0.002687393865543643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001066288256535984</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005872469085042025</v>
+      </c>
+      <c r="C71">
+        <v>-0.09630553865279252</v>
+      </c>
+      <c r="D71">
+        <v>-0.3064885938694229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004082222048871943</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01614034140289243</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529097109633905</v>
+      </c>
+      <c r="D72">
+        <v>0.02091093615967967</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01099450790193992</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03065907719101378</v>
+      </c>
+      <c r="C73">
+        <v>-0.2789766282015016</v>
+      </c>
+      <c r="D73">
+        <v>0.0483167747877566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004225368606003876</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00188442645139182</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047437596846213</v>
+      </c>
+      <c r="D74">
+        <v>0.03627732372822121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00259834160524071</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01098619139619232</v>
+      </c>
+      <c r="C75">
+        <v>-0.1258462663501994</v>
+      </c>
+      <c r="D75">
+        <v>0.02298269044169598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009805695918312351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02175867942736231</v>
+      </c>
+      <c r="C76">
+        <v>-0.148783295673637</v>
+      </c>
+      <c r="D76">
+        <v>0.06020981690764984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0006216863032631431</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02386310015395441</v>
+      </c>
+      <c r="C77">
+        <v>-0.1291910029447237</v>
+      </c>
+      <c r="D77">
+        <v>0.08538685960744183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000668933439674872</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01475328780496879</v>
+      </c>
+      <c r="C78">
+        <v>-0.09556598847607409</v>
+      </c>
+      <c r="D78">
+        <v>0.07042074915518352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02297145027959426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03757347832168238</v>
+      </c>
+      <c r="C79">
+        <v>-0.1547373982979369</v>
+      </c>
+      <c r="D79">
+        <v>0.03495748654783013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006292947014963495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.010522172554394</v>
+      </c>
+      <c r="C80">
+        <v>-0.04125742337019454</v>
+      </c>
+      <c r="D80">
+        <v>0.02924755527378469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001328899915338398</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01548096602056047</v>
+      </c>
+      <c r="C81">
+        <v>-0.1274656996023628</v>
+      </c>
+      <c r="D81">
+        <v>0.03934322362161267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005684223998933772</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0197558820120381</v>
+      </c>
+      <c r="C82">
+        <v>-0.1410342886163435</v>
+      </c>
+      <c r="D82">
+        <v>0.0423281598869877</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008162031886242229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01009851213794542</v>
+      </c>
+      <c r="C83">
+        <v>-0.05735481105149657</v>
+      </c>
+      <c r="D83">
+        <v>0.05845541379273567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01333148297562164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01172373250551744</v>
+      </c>
+      <c r="C84">
+        <v>-0.0366501939706014</v>
+      </c>
+      <c r="D84">
+        <v>-0.0118002004296986</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01340663246915004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02817702412692836</v>
+      </c>
+      <c r="C85">
+        <v>-0.1245685099094542</v>
+      </c>
+      <c r="D85">
+        <v>0.04437522116203125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002279559566955809</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.0059343402507816</v>
+      </c>
+      <c r="C86">
+        <v>-0.05001252778026181</v>
+      </c>
+      <c r="D86">
+        <v>0.02068138193000199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002809359801794795</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0102269831451407</v>
+      </c>
+      <c r="C87">
+        <v>-0.1308413625633986</v>
+      </c>
+      <c r="D87">
+        <v>0.07157576820616944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01188995940237609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002794171448217238</v>
+      </c>
+      <c r="C88">
+        <v>-0.06722562730124651</v>
+      </c>
+      <c r="D88">
+        <v>0.01396269340340912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01415179055564835</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001278509085902776</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466203422906754</v>
+      </c>
+      <c r="D89">
+        <v>-0.3430391523299438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003587076276738013</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007017940855594203</v>
+      </c>
+      <c r="C90">
+        <v>-0.1214100814579937</v>
+      </c>
+      <c r="D90">
+        <v>-0.323775588784048</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006693175545368025</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01051424896809868</v>
+      </c>
+      <c r="C91">
+        <v>-0.1025098079020275</v>
+      </c>
+      <c r="D91">
+        <v>0.02035539563978216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008725943557855031</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000920708826723688</v>
+      </c>
+      <c r="C92">
+        <v>-0.1359021410311957</v>
+      </c>
+      <c r="D92">
+        <v>-0.3288790361863454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.000712102301108552</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00486912527227263</v>
+      </c>
+      <c r="C93">
+        <v>-0.104065295458688</v>
+      </c>
+      <c r="D93">
+        <v>-0.3062673357062406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002879392985145888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02264518966147358</v>
+      </c>
+      <c r="C94">
+        <v>-0.1479635405309258</v>
+      </c>
+      <c r="D94">
+        <v>0.05033488881306711</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.003874472456734758</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01645844316203868</v>
+      </c>
+      <c r="C95">
+        <v>-0.1275143657983758</v>
+      </c>
+      <c r="D95">
+        <v>0.05739859416712856</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0003332621491788992</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03600778571881727</v>
+      </c>
+      <c r="C97">
+        <v>-0.211445612790384</v>
+      </c>
+      <c r="D97">
+        <v>-0.01209490367691252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003562809452003557</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03675539595688242</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495364625727097</v>
+      </c>
+      <c r="D98">
+        <v>0.04698455960110649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9844518480451423</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9822168187319009</v>
+      </c>
+      <c r="C99">
+        <v>0.1163511876515508</v>
+      </c>
+      <c r="D99">
+        <v>-0.02737433619064978</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001214237223414639</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003275343789659942</v>
+      </c>
+      <c r="C101">
+        <v>-0.04997795131418267</v>
+      </c>
+      <c r="D101">
+        <v>0.005084474154497012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
